--- a/tests/Feature/config/cash_zero.xlsx
+++ b/tests/Feature/config/cash_zero.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>private</t>
   </si>
@@ -112,7 +112,7 @@
     <t>Anskaffelsesverdi</t>
   </si>
   <si>
-    <t>Betalt (inkl kostnader)</t>
+    <t>Finans kostnader)</t>
   </si>
   <si>
     <t>Skattbar</t>
@@ -148,13 +148,16 @@
     <t>cash</t>
   </si>
   <si>
-    <t xml:space="preserve">000 Asset rule </t>
+    <t xml:space="preserve"> Asset rule: </t>
   </si>
   <si>
-    <t>00Kontanter p.t. Asset rule Using current amount: 100000 * 1</t>
+    <t>Kontanter p.t. Asset rule: Using current amount: 100000 * 1</t>
   </si>
   <si>
-    <t>000 Asset rule Using current amount: 100000 * 1</t>
+    <t xml:space="preserve"> Asset rule: Using current amount: 100000 * 1</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -576,7 +579,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6131,7 +6134,7 @@
     <col min="17" max="17" width="6.998" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="32.992" bestFit="true" customWidth="true" style="0"/>
     <col min="19" max="19" width="21.138" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="28.136" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="21.138" bestFit="true" customWidth="true" style="0"/>
     <col min="21" max="21" width="15.282" bestFit="true" customWidth="true" style="0"/>
     <col min="22" max="22" width="12.854" bestFit="true" customWidth="true" style="0"/>
     <col min="23" max="23" width="6.998" bestFit="true" customWidth="true" style="0"/>
@@ -6349,7 +6352,7 @@
       </c>
       <c r="V6" s="2"/>
       <c r="W6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X6" s="2"/>
       <c r="Y6" s="1">
@@ -6419,7 +6422,7 @@
       </c>
       <c r="V7" s="2"/>
       <c r="W7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X7" s="2"/>
       <c r="Y7" s="1">
@@ -6489,7 +6492,7 @@
       </c>
       <c r="V8" s="2"/>
       <c r="W8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X8" s="2"/>
       <c r="Y8" s="1">
@@ -6559,7 +6562,7 @@
       </c>
       <c r="V9" s="2"/>
       <c r="W9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X9" s="2"/>
       <c r="Y9" s="1">
@@ -6629,7 +6632,7 @@
       </c>
       <c r="V10" s="2"/>
       <c r="W10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X10" s="2"/>
       <c r="Y10" s="1">
@@ -6699,7 +6702,7 @@
       </c>
       <c r="V11" s="2"/>
       <c r="W11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X11" s="2"/>
       <c r="Y11" s="1">
@@ -6769,7 +6772,7 @@
       </c>
       <c r="V12" s="2"/>
       <c r="W12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" s="1">
@@ -6839,7 +6842,7 @@
       </c>
       <c r="V13" s="2"/>
       <c r="W13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" s="1">
@@ -6909,7 +6912,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X14" s="2"/>
       <c r="Y14" s="1">
@@ -6979,7 +6982,7 @@
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" s="1">
@@ -7049,7 +7052,7 @@
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" s="1">
@@ -7119,7 +7122,7 @@
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" s="1">
@@ -7189,7 +7192,7 @@
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2"/>
       <c r="Y18" s="1">
@@ -7259,7 +7262,7 @@
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X19" s="2"/>
       <c r="Y19" s="1">
@@ -7329,7 +7332,7 @@
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X20" s="2"/>
       <c r="Y20" s="1">
@@ -7399,7 +7402,7 @@
       </c>
       <c r="V21" s="2"/>
       <c r="W21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X21" s="2"/>
       <c r="Y21" s="1">
@@ -7469,7 +7472,7 @@
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="1">
@@ -7539,7 +7542,7 @@
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2"/>
       <c r="Y23" s="1">
@@ -7609,7 +7612,7 @@
       </c>
       <c r="V24" s="2"/>
       <c r="W24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X24" s="2"/>
       <c r="Y24" s="1">
@@ -7679,7 +7682,7 @@
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X25" s="2"/>
       <c r="Y25" s="1">
@@ -7749,7 +7752,7 @@
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X26" s="2"/>
       <c r="Y26" s="1">
@@ -7819,7 +7822,7 @@
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2"/>
       <c r="Y27" s="1">
@@ -7889,7 +7892,7 @@
       </c>
       <c r="V28" s="2"/>
       <c r="W28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X28" s="2"/>
       <c r="Y28" s="1">
@@ -7959,7 +7962,7 @@
       </c>
       <c r="V29" s="2"/>
       <c r="W29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X29" s="2"/>
       <c r="Y29" s="1">
@@ -8029,7 +8032,7 @@
       </c>
       <c r="V30" s="2"/>
       <c r="W30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X30" s="2"/>
       <c r="Y30" s="1">
@@ -8099,7 +8102,7 @@
       </c>
       <c r="V31" s="2"/>
       <c r="W31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X31" s="2"/>
       <c r="Y31" s="1">
@@ -8169,7 +8172,7 @@
       </c>
       <c r="V32" s="2"/>
       <c r="W32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X32" s="2"/>
       <c r="Y32" s="1">
@@ -8239,7 +8242,7 @@
       </c>
       <c r="V33" s="2"/>
       <c r="W33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" s="1">
@@ -8309,7 +8312,7 @@
       </c>
       <c r="V34" s="2"/>
       <c r="W34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X34" s="2"/>
       <c r="Y34" s="1">
@@ -8379,7 +8382,7 @@
       </c>
       <c r="V35" s="2"/>
       <c r="W35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" s="1">
@@ -8449,7 +8452,7 @@
       </c>
       <c r="V36" s="2"/>
       <c r="W36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="X36" s="2"/>
       <c r="Y36" s="1">
@@ -8521,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="W37" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X37" s="2">
         <v>0.01</v>
@@ -8595,7 +8598,7 @@
         <v>1</v>
       </c>
       <c r="W38" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X38" s="2">
         <v>0.01</v>
@@ -8669,7 +8672,7 @@
         <v>1</v>
       </c>
       <c r="W39" s="8">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X39" s="9">
         <v>0.01</v>
@@ -8744,7 +8747,7 @@
         <v>1</v>
       </c>
       <c r="W40" s="11">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X40" s="12">
         <v>0.01</v>
@@ -8819,7 +8822,7 @@
         <v>1</v>
       </c>
       <c r="W41" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X41" s="2">
         <v>0.01</v>
@@ -8893,7 +8896,7 @@
         <v>1</v>
       </c>
       <c r="W42" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X42" s="2">
         <v>0.01</v>
@@ -8967,7 +8970,7 @@
         <v>1</v>
       </c>
       <c r="W43" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X43" s="2">
         <v>0.01</v>
@@ -9041,7 +9044,7 @@
         <v>1</v>
       </c>
       <c r="W44" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X44" s="2">
         <v>0.01</v>
@@ -9115,7 +9118,7 @@
         <v>1</v>
       </c>
       <c r="W45" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X45" s="2">
         <v>0.01</v>
@@ -9189,7 +9192,7 @@
         <v>1</v>
       </c>
       <c r="W46" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X46" s="2">
         <v>0.01</v>
@@ -9263,7 +9266,7 @@
         <v>1</v>
       </c>
       <c r="W47" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X47" s="2">
         <v>0.01</v>
@@ -9337,7 +9340,7 @@
         <v>1</v>
       </c>
       <c r="W48" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X48" s="2">
         <v>0.01</v>
@@ -9411,7 +9414,7 @@
         <v>1</v>
       </c>
       <c r="W49" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X49" s="2">
         <v>0.01</v>
@@ -9485,7 +9488,7 @@
         <v>1</v>
       </c>
       <c r="W50" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X50" s="2">
         <v>0.01</v>
@@ -9559,7 +9562,7 @@
         <v>1</v>
       </c>
       <c r="W51" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X51" s="2">
         <v>0.01</v>
@@ -9633,7 +9636,7 @@
         <v>1</v>
       </c>
       <c r="W52" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X52" s="2">
         <v>0.01</v>
@@ -9707,7 +9710,7 @@
         <v>1</v>
       </c>
       <c r="W53" s="13">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X53" s="14">
         <v>0.01</v>
@@ -9782,7 +9785,7 @@
         <v>1</v>
       </c>
       <c r="W54" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X54" s="2">
         <v>0.01</v>
@@ -9856,7 +9859,7 @@
         <v>1</v>
       </c>
       <c r="W55" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X55" s="2">
         <v>0.01</v>
@@ -9930,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="W56" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X56" s="2">
         <v>0.01</v>
@@ -10004,7 +10007,7 @@
         <v>1</v>
       </c>
       <c r="W57" s="13">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X57" s="14">
         <v>0.01</v>
@@ -10079,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="W58" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X58" s="2">
         <v>0.01</v>
@@ -10153,7 +10156,7 @@
         <v>1</v>
       </c>
       <c r="W59" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X59" s="2">
         <v>0.01</v>
@@ -10227,7 +10230,7 @@
         <v>1</v>
       </c>
       <c r="W60" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X60" s="2">
         <v>0.01</v>
@@ -10301,7 +10304,7 @@
         <v>1</v>
       </c>
       <c r="W61" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X61" s="2">
         <v>0.01</v>
@@ -10375,7 +10378,7 @@
         <v>1</v>
       </c>
       <c r="W62" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X62" s="2">
         <v>0.01</v>
@@ -10449,7 +10452,7 @@
         <v>1</v>
       </c>
       <c r="W63" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X63" s="2">
         <v>0.01</v>
@@ -10523,7 +10526,7 @@
         <v>1</v>
       </c>
       <c r="W64" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X64" s="2">
         <v>0.01</v>
@@ -10597,7 +10600,7 @@
         <v>1</v>
       </c>
       <c r="W65" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X65" s="2">
         <v>0.01</v>
@@ -10671,7 +10674,7 @@
         <v>1</v>
       </c>
       <c r="W66" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X66" s="2">
         <v>0.01</v>
@@ -10745,7 +10748,7 @@
         <v>1</v>
       </c>
       <c r="W67" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X67" s="2">
         <v>0.01</v>
@@ -10819,7 +10822,7 @@
         <v>1</v>
       </c>
       <c r="W68" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X68" s="2">
         <v>0.01</v>
@@ -10893,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="W69" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X69" s="2">
         <v>0.01</v>
@@ -10967,7 +10970,7 @@
         <v>1</v>
       </c>
       <c r="W70" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X70" s="2">
         <v>0.01</v>
@@ -11041,7 +11044,7 @@
         <v>1</v>
       </c>
       <c r="W71" s="1">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X71" s="2">
         <v>0.01</v>
@@ -11115,7 +11118,7 @@
         <v>1</v>
       </c>
       <c r="W72" s="5">
-        <v>1000.0</v>
+        <v>0</v>
       </c>
       <c r="X72" s="16">
         <v>0.01</v>
@@ -11403,14 +11406,574 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:C72"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetData>
+    <row r="5" spans="1:3">
+      <c r="B5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>2022</v>
+      </c>
+      <c r="B37">
+        <v>100.0</v>
+      </c>
+      <c r="C37">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>2023</v>
+      </c>
+      <c r="B38">
+        <v>100.0</v>
+      </c>
+      <c r="C38">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2024</v>
+      </c>
+      <c r="B39">
+        <v>100.0</v>
+      </c>
+      <c r="C39">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>2025</v>
+      </c>
+      <c r="B40">
+        <v>100.0</v>
+      </c>
+      <c r="C40">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>2026</v>
+      </c>
+      <c r="B41">
+        <v>100.0</v>
+      </c>
+      <c r="C41">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>2027</v>
+      </c>
+      <c r="B42">
+        <v>100.0</v>
+      </c>
+      <c r="C42">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>2028</v>
+      </c>
+      <c r="B43">
+        <v>100.0</v>
+      </c>
+      <c r="C43">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>2029</v>
+      </c>
+      <c r="B44">
+        <v>100.0</v>
+      </c>
+      <c r="C44">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>2030</v>
+      </c>
+      <c r="B45">
+        <v>100.0</v>
+      </c>
+      <c r="C45">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>2031</v>
+      </c>
+      <c r="B46">
+        <v>100.0</v>
+      </c>
+      <c r="C46">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>2032</v>
+      </c>
+      <c r="B47">
+        <v>100.0</v>
+      </c>
+      <c r="C47">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>2033</v>
+      </c>
+      <c r="B48">
+        <v>100.0</v>
+      </c>
+      <c r="C48">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>2034</v>
+      </c>
+      <c r="B49">
+        <v>100.0</v>
+      </c>
+      <c r="C49">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>2035</v>
+      </c>
+      <c r="B50">
+        <v>100.0</v>
+      </c>
+      <c r="C50">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>2036</v>
+      </c>
+      <c r="B51">
+        <v>100.0</v>
+      </c>
+      <c r="C51">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>2037</v>
+      </c>
+      <c r="B52">
+        <v>100.0</v>
+      </c>
+      <c r="C52">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>2038</v>
+      </c>
+      <c r="B53">
+        <v>100.0</v>
+      </c>
+      <c r="C53">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>2039</v>
+      </c>
+      <c r="B54">
+        <v>100.0</v>
+      </c>
+      <c r="C54">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>2040</v>
+      </c>
+      <c r="B55">
+        <v>100.0</v>
+      </c>
+      <c r="C55">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56">
+        <v>2041</v>
+      </c>
+      <c r="B56">
+        <v>100.0</v>
+      </c>
+      <c r="C56">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57">
+        <v>2042</v>
+      </c>
+      <c r="B57">
+        <v>100.0</v>
+      </c>
+      <c r="C57">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58">
+        <v>2043</v>
+      </c>
+      <c r="B58">
+        <v>100.0</v>
+      </c>
+      <c r="C58">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59">
+        <v>2044</v>
+      </c>
+      <c r="B59">
+        <v>100.0</v>
+      </c>
+      <c r="C59">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60">
+        <v>2045</v>
+      </c>
+      <c r="B60">
+        <v>100.0</v>
+      </c>
+      <c r="C60">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61">
+        <v>2046</v>
+      </c>
+      <c r="B61">
+        <v>100.0</v>
+      </c>
+      <c r="C61">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62">
+        <v>2047</v>
+      </c>
+      <c r="B62">
+        <v>100.0</v>
+      </c>
+      <c r="C62">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63">
+        <v>2048</v>
+      </c>
+      <c r="B63">
+        <v>100.0</v>
+      </c>
+      <c r="C63">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64">
+        <v>2049</v>
+      </c>
+      <c r="B64">
+        <v>100.0</v>
+      </c>
+      <c r="C64">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65">
+        <v>2050</v>
+      </c>
+      <c r="B65">
+        <v>100.0</v>
+      </c>
+      <c r="C65">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66">
+        <v>2051</v>
+      </c>
+      <c r="B66">
+        <v>100.0</v>
+      </c>
+      <c r="C66">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67">
+        <v>2052</v>
+      </c>
+      <c r="B67">
+        <v>100.0</v>
+      </c>
+      <c r="C67">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68">
+        <v>2053</v>
+      </c>
+      <c r="B68">
+        <v>100.0</v>
+      </c>
+      <c r="C68">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69">
+        <v>2054</v>
+      </c>
+      <c r="B69">
+        <v>100.0</v>
+      </c>
+      <c r="C69">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70">
+        <v>2055</v>
+      </c>
+      <c r="B70">
+        <v>100.0</v>
+      </c>
+      <c r="C70">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71">
+        <v>2056</v>
+      </c>
+      <c r="B71">
+        <v>100.0</v>
+      </c>
+      <c r="C71">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72">
+        <v>2057</v>
+      </c>
+      <c r="B72">
+        <v>100.0</v>
+      </c>
+      <c r="C72">
+        <v>100.0</v>
+      </c>
+    </row>
+  </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
